--- a/4_内部設計(ID)/内部設計書xlsx.xlsx
+++ b/4_内部設計(ID)/内部設計書xlsx.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/e-learning-web-app/e-learning-web-app/4_内部設計(ID)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dungbong\Desktop\e-learning-web-app\4_内部設計(ID)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EAD9E1-200E-F644-ABFF-C52E7884466C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{45E893E7-AC72-1742-85E3-839D9BA3BB2E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン・登録・ログアウト（全体）" sheetId="1" r:id="rId1"/>
@@ -131,7 +130,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -142,7 +141,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -157,7 +156,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -168,7 +167,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -179,10 +178,7 @@
 ・入力パスワードとデータベースでのパースワードが違うとすぐエラーメッセージが出て来る</t>
     </r>
     <rPh sb="0" eb="1">
-      <t>タダsh</t>
-    </rPh>
-    <rPh sb="22809" eb="22810">
-      <t>ケンゲn</t>
+      <t>タダshケンゲn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -218,7 +214,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -229,7 +225,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -249,19 +245,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -269,7 +265,7 @@
     <font>
       <sz val="26"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -277,7 +273,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -286,7 +282,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -668,33 +664,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -710,25 +679,73 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -743,6 +760,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -752,43 +778,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,25 +796,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -824,7 +811,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -833,29 +820,74 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -866,60 +898,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2608,6 +2604,2867 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5308DD-29F4-3C49-BF8C-B74B78EE7B33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="895349"/>
+          <a:ext cx="1895475" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン／アカウント登録ページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19246</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{495F57AE-328A-194A-885D-FA86072FDA1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2162175" y="1209675"/>
+          <a:ext cx="1905000" cy="9721"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5308DD-29F4-3C49-BF8C-B74B78EE7B33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067175" y="333374"/>
+          <a:ext cx="3857625" cy="6105525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>各ユーザのホームぺージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714376</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390776" y="790575"/>
+          <a:ext cx="1809750" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン成功すると</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4295776" y="933450"/>
+          <a:ext cx="2143124" cy="371476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リスト名（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>list_name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>）入力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572250" y="942975"/>
+          <a:ext cx="933450" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>検索ボタン</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295526" y="1266825"/>
+          <a:ext cx="1809750" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>各ユーザのホームページへ移行</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8115301" y="828675"/>
+          <a:ext cx="1228724" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クリックすると</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8010525" y="1200150"/>
+          <a:ext cx="1809750" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リスト名（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>list_name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>）をサーバ側の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>search.js</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>へ送る</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rounded Rectangle 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5308DD-29F4-3C49-BF8C-B74B78EE7B33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10239374" y="238125"/>
+          <a:ext cx="10487025" cy="6705600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>node.js</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>サーバ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Flowchart: Magnetic Disk 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14773275" y="733426"/>
+          <a:ext cx="5133975" cy="5905500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17002126" y="923925"/>
+          <a:ext cx="857249" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>mongodb</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>140783</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{495F57AE-328A-194A-885D-FA86072FDA1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591425" y="1123950"/>
+          <a:ext cx="2933700" cy="16958"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>399429</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rounded Rectangle 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5308DD-29F4-3C49-BF8C-B74B78EE7B33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10553700" y="962025"/>
+          <a:ext cx="1580529" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>search.js</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15297150" y="1543050"/>
+          <a:ext cx="4514850" cy="4724400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>{ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="0"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"123456-abcdef"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="0"/>
+            <a:t>, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>date_time</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>": "20200529_23:23:59", </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" b="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>company</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>": "NTTD", </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>list_name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内部設計</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>", </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>word</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="0"/>
+            <a:t>: [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" b="0"/>
+            <a:t>   {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" b="0"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"kanji"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="0"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内部</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="0"/>
+            <a:t>,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"furigana"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="0"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ないぶ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   "vietnamese":"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>nội bộ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   "meaning":"la phan thiet ke cu the ben trong he thong, phan mem...",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   "comment":"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>重要</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="0"/>
+            <a:t>},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" b="0" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> {</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   "kanji": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内部</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>",</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"furigana": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ないぶ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>",</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   "vietnamese":"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>nội bộ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>",</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   "meaning":"la phan thiet ke cu the ben trong he thong, phan mem...",</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   "comment":""</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" b="0" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="0"/>
+            <a:t>],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" b="0" baseline="0"/>
+            <a:t> "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0"/>
+            <a:t>QandA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="0" baseline="0"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>:""</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{495F57AE-328A-194A-885D-FA86072FDA1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12153900" y="1200150"/>
+          <a:ext cx="2924175" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12239625" y="695325"/>
+          <a:ext cx="2514599" cy="2038349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>search list_name in fields</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ですべての</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>field</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>を検索、</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+            <a:t>list_name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>があるドキュメントを検出</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{495F57AE-328A-194A-885D-FA86072FDA1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12153900" y="2066925"/>
+          <a:ext cx="2609850" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{495F57AE-328A-194A-885D-FA86072FDA1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7591425" y="2076450"/>
+          <a:ext cx="2933700" cy="19051"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="TextBox 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8134349" y="2181225"/>
+          <a:ext cx="2085975" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>list_name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>があるドキュメントを渡し、表示する</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="TextBox 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5114926" y="1914525"/>
+          <a:ext cx="1809750" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15239999" y="1295400"/>
+          <a:ext cx="2571751" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ドキュメントフォーマットの例</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400550" y="1904999"/>
+          <a:ext cx="3152775" cy="3762375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リスト名：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>list_name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>企業：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>company</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>語１：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>word[0].kanji</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>フリガナ：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>word[0].furigana</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ベトナム語：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>word[0].vietnamese</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>説明：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>word[0].meaning</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>備考：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>word[0].comment</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>語２：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>フリガナ：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ベトナム語：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>説明：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>備考：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リスト名：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>list_name2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>。。。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4566,37 +7423,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE9469A-AB7A-4340-AA73-1FCF6A42F10A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="89"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="23"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -4618,25 +7475,25 @@
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="A2" s="83"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="90"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="24"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -4658,25 +7515,25 @@
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38">
-      <c r="A3" s="83"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="90"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="24"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -4698,25 +7555,25 @@
       <c r="AL3" s="1"/>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="84"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="90"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="24"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -4738,30 +7595,30 @@
       <c r="AL4" s="1"/>
     </row>
     <row r="5" spans="1:38">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="30" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="30" t="s">
+      <c r="K5" s="38"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="42"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="47"/>
       <c r="S5" s="48"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -4784,25 +7641,25 @@
       <c r="AL5" s="1"/>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" s="28"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="50"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="51"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -4824,31 +7681,31 @@
       <c r="AL6" s="1"/>
     </row>
     <row r="7" spans="1:38">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="30" t="s">
+      <c r="O7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="37"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="14"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -4869,26 +7726,26 @@
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
     </row>
-    <row r="8" spans="1:38" ht="21" thickBot="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="45"/>
+    <row r="8" spans="1:38" ht="16.5" thickBot="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="45"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="39"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="16"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -4910,7 +7767,7 @@
       <c r="AL8" s="1"/>
     </row>
     <row r="9" spans="1:38">
-      <c r="A9" s="85"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4928,7 +7785,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="46"/>
+      <c r="S9" s="17"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -4950,7 +7807,7 @@
       <c r="AL9" s="1"/>
     </row>
     <row r="10" spans="1:38">
-      <c r="A10" s="54"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -4968,7 +7825,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="46"/>
+      <c r="S10" s="17"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -4990,7 +7847,7 @@
       <c r="AL10" s="1"/>
     </row>
     <row r="11" spans="1:38">
-      <c r="A11" s="54"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -5008,7 +7865,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="46"/>
+      <c r="S11" s="17"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -5030,7 +7887,7 @@
       <c r="AL11" s="1"/>
     </row>
     <row r="12" spans="1:38">
-      <c r="A12" s="54"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -5048,7 +7905,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="46"/>
+      <c r="S12" s="17"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -5070,7 +7927,7 @@
       <c r="AL12" s="1"/>
     </row>
     <row r="13" spans="1:38">
-      <c r="A13" s="54"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -5088,7 +7945,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="46"/>
+      <c r="S13" s="17"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -5110,7 +7967,7 @@
       <c r="AL13" s="1"/>
     </row>
     <row r="14" spans="1:38">
-      <c r="A14" s="54"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -5128,7 +7985,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="46"/>
+      <c r="S14" s="17"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -5150,7 +8007,7 @@
       <c r="AL14" s="1"/>
     </row>
     <row r="15" spans="1:38">
-      <c r="A15" s="54"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -5168,7 +8025,7 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="46"/>
+      <c r="S15" s="17"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -5190,7 +8047,7 @@
       <c r="AL15" s="1"/>
     </row>
     <row r="16" spans="1:38">
-      <c r="A16" s="54"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -5208,7 +8065,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="46"/>
+      <c r="S16" s="17"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -5230,7 +8087,7 @@
       <c r="AL16" s="1"/>
     </row>
     <row r="17" spans="1:39">
-      <c r="A17" s="54"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -5248,7 +8105,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="46"/>
+      <c r="S17" s="17"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -5270,7 +8127,7 @@
       <c r="AL17" s="1"/>
     </row>
     <row r="18" spans="1:39">
-      <c r="A18" s="54"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -5288,7 +8145,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="46"/>
+      <c r="S18" s="17"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -5310,7 +8167,7 @@
       <c r="AL18" s="1"/>
     </row>
     <row r="19" spans="1:39">
-      <c r="A19" s="54"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -5328,7 +8185,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="46"/>
+      <c r="S19" s="17"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -5350,7 +8207,7 @@
       <c r="AL19" s="1"/>
     </row>
     <row r="20" spans="1:39">
-      <c r="A20" s="54"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -5368,7 +8225,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="46"/>
+      <c r="S20" s="17"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -5390,7 +8247,7 @@
       <c r="AL20" s="1"/>
     </row>
     <row r="21" spans="1:39">
-      <c r="A21" s="54"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -5408,7 +8265,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="46"/>
+      <c r="S21" s="17"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -5430,7 +8287,7 @@
       <c r="AL21" s="1"/>
     </row>
     <row r="22" spans="1:39">
-      <c r="A22" s="54"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -5448,7 +8305,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="46"/>
+      <c r="S22" s="17"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -5470,7 +8327,7 @@
       <c r="AL22" s="1"/>
     </row>
     <row r="23" spans="1:39">
-      <c r="A23" s="54"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -5488,7 +8345,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="46"/>
+      <c r="S23" s="17"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
@@ -5510,7 +8367,7 @@
       <c r="AL23" s="1"/>
     </row>
     <row r="24" spans="1:39">
-      <c r="A24" s="54"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -5528,7 +8385,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="46"/>
+      <c r="S24" s="17"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
@@ -5550,7 +8407,7 @@
       <c r="AL24" s="1"/>
     </row>
     <row r="25" spans="1:39">
-      <c r="A25" s="54"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -5568,7 +8425,7 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="46"/>
+      <c r="S25" s="17"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -5590,7 +8447,7 @@
       <c r="AL25" s="1"/>
     </row>
     <row r="26" spans="1:39">
-      <c r="A26" s="54"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -5608,7 +8465,7 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="46"/>
+      <c r="S26" s="17"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -5630,7 +8487,7 @@
       <c r="AL26" s="1"/>
     </row>
     <row r="27" spans="1:39">
-      <c r="A27" s="54"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -5648,7 +8505,7 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="46"/>
+      <c r="S27" s="17"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -5670,25 +8527,25 @@
       <c r="AL27" s="1"/>
     </row>
     <row r="28" spans="1:39">
-      <c r="A28" s="54"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="39"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="16"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -5710,31 +8567,31 @@
       <c r="AL28" s="1"/>
     </row>
     <row r="29" spans="1:39">
-      <c r="A29" s="86">
+      <c r="A29" s="65">
         <v>1</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="67" t="s">
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="64"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="54"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -5757,25 +8614,25 @@
       <c r="AM29" s="1"/>
     </row>
     <row r="30" spans="1:39">
-      <c r="A30" s="87"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="65"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="57"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -5798,25 +8655,25 @@
       <c r="AM30" s="1"/>
     </row>
     <row r="31" spans="1:39">
-      <c r="A31" s="87"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="65"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="57"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -5839,25 +8696,25 @@
       <c r="AM31" s="1"/>
     </row>
     <row r="32" spans="1:39">
-      <c r="A32" s="87"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="65"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="57"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -5880,25 +8737,25 @@
       <c r="AM32" s="1"/>
     </row>
     <row r="33" spans="1:39">
-      <c r="A33" s="87"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="66"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="60"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
@@ -5921,27 +8778,27 @@
       <c r="AM33" s="1"/>
     </row>
     <row r="34" spans="1:39">
-      <c r="A34" s="87"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="67" t="s">
+      <c r="A34" s="66"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="64"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="54"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
@@ -5964,25 +8821,25 @@
       <c r="AM34" s="1"/>
     </row>
     <row r="35" spans="1:39">
-      <c r="A35" s="87"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="65"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="57"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
@@ -6005,25 +8862,25 @@
       <c r="AM35" s="1"/>
     </row>
     <row r="36" spans="1:39">
-      <c r="A36" s="87"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="65"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="57"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
@@ -6046,25 +8903,25 @@
       <c r="AM36" s="1"/>
     </row>
     <row r="37" spans="1:39">
-      <c r="A37" s="87"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="65"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="57"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -6087,25 +8944,25 @@
       <c r="AM37" s="1"/>
     </row>
     <row r="38" spans="1:39">
-      <c r="A38" s="88"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="66"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="60"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
@@ -6128,31 +8985,31 @@
       <c r="AM38" s="1"/>
     </row>
     <row r="39" spans="1:39">
-      <c r="A39" s="86">
+      <c r="A39" s="65">
         <v>2</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="67" t="s">
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="64"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="54"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
@@ -6175,25 +9032,25 @@
       <c r="AM39" s="1"/>
     </row>
     <row r="40" spans="1:39">
-      <c r="A40" s="87"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="48"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="65"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="57"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -6216,25 +9073,25 @@
       <c r="AM40" s="1"/>
     </row>
     <row r="41" spans="1:39">
-      <c r="A41" s="88"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="66"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="60"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
@@ -6257,31 +9114,31 @@
       <c r="AM41" s="1"/>
     </row>
     <row r="42" spans="1:39">
-      <c r="A42" s="86">
+      <c r="A42" s="65">
         <v>3</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="67" t="s">
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="64"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="54"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
@@ -6304,25 +9161,25 @@
       <c r="AM42" s="1"/>
     </row>
     <row r="43" spans="1:39">
-      <c r="A43" s="87"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
       <c r="E43" s="48"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="65"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="57"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
@@ -6345,25 +9202,25 @@
       <c r="AM43" s="1"/>
     </row>
     <row r="44" spans="1:39">
-      <c r="A44" s="88"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="62"/>
-      <c r="R44" s="62"/>
-      <c r="S44" s="66"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="59"/>
+      <c r="P44" s="59"/>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="59"/>
+      <c r="S44" s="60"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
@@ -6386,31 +9243,31 @@
       <c r="AM44" s="1"/>
     </row>
     <row r="45" spans="1:39">
-      <c r="A45" s="86">
+      <c r="A45" s="65">
         <v>4</v>
       </c>
-      <c r="B45" s="75" t="s">
+      <c r="B45" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="76" t="s">
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="56"/>
-      <c r="Q45" s="56"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="64"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="54"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
@@ -6433,25 +9290,25 @@
       <c r="AM45" s="1"/>
     </row>
     <row r="46" spans="1:39">
-      <c r="A46" s="87"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
       <c r="E46" s="48"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="65"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="57"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
@@ -6474,25 +9331,25 @@
       <c r="AM46" s="1"/>
     </row>
     <row r="47" spans="1:39">
-      <c r="A47" s="87"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
       <c r="E47" s="48"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="59"/>
-      <c r="O47" s="59"/>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="59"/>
-      <c r="S47" s="65"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="57"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
@@ -6515,25 +9372,25 @@
       <c r="AM47" s="1"/>
     </row>
     <row r="48" spans="1:39">
-      <c r="A48" s="87"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
       <c r="E48" s="48"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="59"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="59"/>
-      <c r="S48" s="65"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="57"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
@@ -6556,25 +9413,25 @@
       <c r="AM48" s="1"/>
     </row>
     <row r="49" spans="1:39">
-      <c r="A49" s="87"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
       <c r="E49" s="48"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="59"/>
-      <c r="O49" s="59"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="59"/>
-      <c r="S49" s="65"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="57"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
@@ -6597,25 +9454,25 @@
       <c r="AM49" s="1"/>
     </row>
     <row r="50" spans="1:39">
-      <c r="A50" s="87"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
       <c r="E50" s="48"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="59"/>
-      <c r="S50" s="65"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="57"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
@@ -6638,25 +9495,25 @@
       <c r="AM50" s="1"/>
     </row>
     <row r="51" spans="1:39">
-      <c r="A51" s="87"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
       <c r="E51" s="48"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="59"/>
-      <c r="S51" s="65"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="57"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
@@ -6679,25 +9536,25 @@
       <c r="AM51" s="1"/>
     </row>
     <row r="52" spans="1:39">
-      <c r="A52" s="88"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="62"/>
-      <c r="S52" s="66"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="59"/>
+      <c r="S52" s="60"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
@@ -6750,14 +9607,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C874F647-EDBC-AA4B-9DFE-2B366B4A4406}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1"/>
@@ -7581,197 +10438,198 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFEE606-F5FA-5844-8EE6-CCE1ADAC4C99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D27" sqref="D27:R29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="71"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="73"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="73"/>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="16"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="75"/>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="30" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="30" t="s">
+      <c r="K5" s="38"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="18"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="9"/>
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="21"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="12"/>
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="30" t="s">
+      <c r="O7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="P7" s="32"/>
+      <c r="P7" s="39"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="5"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="21" thickBot="1">
-      <c r="A8" s="78"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="79"/>
+    <row r="8" spans="1:19" ht="16.5" thickBot="1">
+      <c r="A8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="79"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="81"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="79"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="81"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="7"/>
       <c r="S8" s="1"/>
@@ -8134,187 +10992,187 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="21"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="12"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="71">
+      <c r="A27" s="83">
         <v>1</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="67" t="s">
+      <c r="C27" s="64"/>
+      <c r="D27" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="57"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="87"/>
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="72"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="48"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="60"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="88"/>
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="73"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="63"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="89"/>
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="71">
+      <c r="A30" s="83">
         <v>2</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="55" t="s">
+      <c r="C30" s="64"/>
+      <c r="D30" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="64"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="54"/>
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="72"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="48"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="65"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="57"/>
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="72"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="84"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="48"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="65"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="57"/>
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="73"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="66"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="60"/>
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="69"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -8335,7 +11193,7 @@
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="69"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -8356,7 +11214,7 @@
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="69"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -8377,7 +11235,7 @@
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="69"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -8398,7 +11256,7 @@
       <c r="S37" s="1"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="69"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -8419,7 +11277,7 @@
       <c r="S38" s="1"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="69"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -8440,7 +11298,7 @@
       <c r="S39" s="1"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="69"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -8461,7 +11319,7 @@
       <c r="S40" s="1"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="69"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -8482,7 +11340,7 @@
       <c r="S41" s="1"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="69"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -8503,7 +11361,7 @@
       <c r="S42" s="1"/>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="69"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -8524,7 +11382,7 @@
       <c r="S43" s="1"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="69"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -8545,7 +11403,7 @@
       <c r="S44" s="1"/>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="69"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -8566,7 +11424,7 @@
       <c r="S45" s="1"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="69"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -8587,7 +11445,7 @@
       <c r="S46" s="1"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="70"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -8608,7 +11466,7 @@
       <c r="S47" s="1"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="69"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -8629,7 +11487,7 @@
       <c r="S48" s="1"/>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="69"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -8650,7 +11508,7 @@
       <c r="S49" s="1"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="69"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -8671,7 +11529,7 @@
       <c r="S50" s="1"/>
     </row>
     <row r="51" spans="1:19">
-      <c r="A51" s="69"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -8692,7 +11550,7 @@
       <c r="S51" s="1"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="69"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -8713,7 +11571,7 @@
       <c r="S52" s="1"/>
     </row>
     <row r="53" spans="1:19">
-      <c r="A53" s="74"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -8734,7 +11592,7 @@
       <c r="S53" s="1"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="69"/>
+      <c r="A54" s="19"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -8755,7 +11613,7 @@
       <c r="S54" s="1"/>
     </row>
     <row r="55" spans="1:19">
-      <c r="A55" s="69"/>
+      <c r="A55" s="19"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -8776,7 +11634,7 @@
       <c r="S55" s="1"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="69"/>
+      <c r="A56" s="19"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -8796,8 +11654,8 @@
       <c r="R56" s="5"/>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="1:19" ht="21" thickBot="1">
-      <c r="A57" s="74"/>
+    <row r="57" spans="1:19" ht="16.5" thickBot="1">
+      <c r="A57" s="21"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -8840,12 +11698,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA470A5B-483C-3244-86A6-CAD0336127A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
